--- a/t.xlsx
+++ b/t.xlsx
@@ -354,260 +354,2772 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:AD30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="K38" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:30">
       <c r="A1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B1">
-        <v>100</v>
+        <v>56</v>
+      </c>
+      <c r="C1">
+        <v>19</v>
+      </c>
+      <c r="D1">
+        <v>80</v>
+      </c>
+      <c r="E1">
+        <v>58</v>
+      </c>
+      <c r="F1">
+        <v>47</v>
+      </c>
+      <c r="G1">
+        <v>35</v>
+      </c>
+      <c r="H1">
+        <v>89</v>
+      </c>
+      <c r="I1">
+        <v>82</v>
+      </c>
+      <c r="J1">
+        <v>74</v>
+      </c>
+      <c r="K1">
+        <v>17</v>
+      </c>
+      <c r="L1">
+        <v>85</v>
+      </c>
+      <c r="M1">
+        <v>71</v>
+      </c>
+      <c r="N1">
+        <v>51</v>
+      </c>
+      <c r="O1">
+        <v>30</v>
+      </c>
+      <c r="P1">
+        <v>1</v>
+      </c>
+      <c r="Q1">
+        <v>9</v>
+      </c>
+      <c r="R1">
+        <v>36</v>
+      </c>
+      <c r="S1">
+        <v>14</v>
+      </c>
+      <c r="T1">
+        <v>16</v>
+      </c>
+      <c r="U1">
+        <v>98</v>
+      </c>
+      <c r="V1">
+        <v>44</v>
+      </c>
+      <c r="W1">
+        <v>11</v>
+      </c>
+      <c r="X1">
+        <v>0</v>
+      </c>
+      <c r="Y1">
+        <v>0</v>
+      </c>
+      <c r="Z1">
+        <v>37</v>
+      </c>
+      <c r="AA1">
+        <v>53</v>
+      </c>
+      <c r="AB1">
+        <v>57</v>
+      </c>
+      <c r="AC1">
+        <v>60</v>
+      </c>
+      <c r="AD1">
+        <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:30">
       <c r="A2">
-        <f>A1-1</f>
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>66</v>
+      </c>
+      <c r="C2">
+        <v>45</v>
+      </c>
+      <c r="D2">
+        <v>35</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>60</v>
+      </c>
+      <c r="G2">
+        <v>78</v>
+      </c>
+      <c r="H2">
+        <v>80</v>
+      </c>
+      <c r="I2">
+        <v>51</v>
+      </c>
+      <c r="J2">
+        <v>30</v>
+      </c>
+      <c r="K2">
+        <v>87</v>
+      </c>
+      <c r="L2">
+        <v>72</v>
+      </c>
+      <c r="M2">
+        <v>95</v>
+      </c>
+      <c r="N2">
+        <v>92</v>
+      </c>
+      <c r="O2">
+        <v>53</v>
+      </c>
+      <c r="P2">
+        <v>14</v>
+      </c>
+      <c r="Q2">
+        <v>46</v>
+      </c>
+      <c r="R2">
+        <v>23</v>
+      </c>
+      <c r="S2">
+        <v>86</v>
+      </c>
+      <c r="T2">
+        <v>20</v>
+      </c>
+      <c r="U2">
+        <v>77</v>
+      </c>
+      <c r="V2">
+        <v>84</v>
+      </c>
+      <c r="W2">
         <v>99</v>
       </c>
-      <c r="B2">
-        <f>B1+1</f>
-        <v>101</v>
+      <c r="X2">
+        <v>99</v>
+      </c>
+      <c r="Y2">
+        <v>61</v>
+      </c>
+      <c r="Z2">
+        <v>39</v>
+      </c>
+      <c r="AA2">
+        <v>26</v>
+      </c>
+      <c r="AB2">
+        <v>29</v>
+      </c>
+      <c r="AC2">
+        <v>84</v>
+      </c>
+      <c r="AD2">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:30">
       <c r="A3">
-        <f t="shared" ref="A3:A25" si="0">A2-1</f>
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>67</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>91</v>
+      </c>
+      <c r="G3">
+        <v>27</v>
+      </c>
+      <c r="H3">
+        <v>27</v>
+      </c>
+      <c r="I3">
+        <v>58</v>
+      </c>
+      <c r="J3">
+        <v>69</v>
+      </c>
+      <c r="K3">
+        <v>83</v>
+      </c>
+      <c r="L3">
+        <v>72</v>
+      </c>
+      <c r="M3">
+        <v>48</v>
+      </c>
+      <c r="N3">
+        <v>20</v>
+      </c>
+      <c r="O3">
+        <v>74</v>
+      </c>
+      <c r="P3">
+        <v>46</v>
+      </c>
+      <c r="Q3">
+        <v>45</v>
+      </c>
+      <c r="R3">
+        <v>94</v>
+      </c>
+      <c r="S3">
+        <v>74</v>
+      </c>
+      <c r="T3">
+        <v>10</v>
+      </c>
+      <c r="U3">
+        <v>59</v>
+      </c>
+      <c r="V3">
+        <v>38</v>
+      </c>
+      <c r="W3">
+        <v>73</v>
+      </c>
+      <c r="X3">
+        <v>60</v>
+      </c>
+      <c r="Y3">
+        <v>57</v>
+      </c>
+      <c r="Z3">
+        <v>36</v>
+      </c>
+      <c r="AA3">
+        <v>15</v>
+      </c>
+      <c r="AB3">
+        <v>22</v>
+      </c>
+      <c r="AC3">
+        <v>42</v>
+      </c>
+      <c r="AD3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="A4">
+        <v>51</v>
+      </c>
+      <c r="B4">
         <v>98</v>
       </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B25" si="1">B2+1</f>
-        <v>102</v>
+      <c r="C4">
+        <v>75</v>
+      </c>
+      <c r="D4">
+        <v>34</v>
+      </c>
+      <c r="E4">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>65</v>
+      </c>
+      <c r="G4">
+        <v>49</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>69</v>
+      </c>
+      <c r="J4">
+        <v>50</v>
+      </c>
+      <c r="K4">
+        <v>14</v>
+      </c>
+      <c r="L4">
+        <v>94</v>
+      </c>
+      <c r="M4">
+        <v>14</v>
+      </c>
+      <c r="N4">
+        <v>90</v>
+      </c>
+      <c r="O4">
+        <v>69</v>
+      </c>
+      <c r="P4">
+        <v>30</v>
+      </c>
+      <c r="Q4">
+        <v>42</v>
+      </c>
+      <c r="R4">
+        <v>7</v>
+      </c>
+      <c r="S4">
+        <v>96</v>
+      </c>
+      <c r="T4">
+        <v>68</v>
+      </c>
+      <c r="U4">
+        <v>15</v>
+      </c>
+      <c r="V4">
+        <v>87</v>
+      </c>
+      <c r="W4">
+        <v>82</v>
+      </c>
+      <c r="X4">
+        <v>58</v>
+      </c>
+      <c r="Y4">
+        <v>19</v>
+      </c>
+      <c r="Z4">
+        <v>17</v>
+      </c>
+      <c r="AA4">
+        <v>81</v>
+      </c>
+      <c r="AB4">
+        <v>47</v>
+      </c>
+      <c r="AC4">
+        <v>15</v>
+      </c>
+      <c r="AD4">
+        <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <f t="shared" si="0"/>
+    <row r="5" spans="1:30">
+      <c r="A5">
+        <v>73</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>27</v>
+      </c>
+      <c r="D5">
+        <v>56</v>
+      </c>
+      <c r="E5">
+        <v>68</v>
+      </c>
+      <c r="F5">
+        <v>75</v>
+      </c>
+      <c r="G5">
+        <v>72</v>
+      </c>
+      <c r="H5">
+        <v>47</v>
+      </c>
+      <c r="I5">
+        <v>12</v>
+      </c>
+      <c r="J5">
+        <v>36</v>
+      </c>
+      <c r="K5">
+        <v>83</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>51</v>
+      </c>
+      <c r="N5">
+        <v>66</v>
+      </c>
+      <c r="O5">
+        <v>42</v>
+      </c>
+      <c r="P5">
+        <v>10</v>
+      </c>
+      <c r="Q5">
+        <v>94</v>
+      </c>
+      <c r="R5">
+        <v>92</v>
+      </c>
+      <c r="S5">
+        <v>54</v>
+      </c>
+      <c r="T5">
+        <v>34</v>
+      </c>
+      <c r="U5">
+        <v>47</v>
+      </c>
+      <c r="V5">
+        <v>37</v>
+      </c>
+      <c r="W5">
+        <v>84</v>
+      </c>
+      <c r="X5">
+        <v>31</v>
+      </c>
+      <c r="Y5">
+        <v>45</v>
+      </c>
+      <c r="Z5">
+        <v>27</v>
+      </c>
+      <c r="AA5">
+        <v>98</v>
+      </c>
+      <c r="AB5">
+        <v>29</v>
+      </c>
+      <c r="AC5">
+        <v>73</v>
+      </c>
+      <c r="AD5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
+      <c r="A6">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>76</v>
+      </c>
+      <c r="C6">
+        <v>83</v>
+      </c>
+      <c r="D6">
+        <v>39</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <v>89</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>99</v>
+      </c>
+      <c r="I6">
+        <v>57</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>53</v>
+      </c>
+      <c r="L6">
+        <v>19</v>
+      </c>
+      <c r="M6">
+        <v>84</v>
+      </c>
+      <c r="N6">
+        <v>62</v>
+      </c>
+      <c r="O6">
+        <v>65</v>
+      </c>
+      <c r="P6">
+        <v>19</v>
+      </c>
+      <c r="Q6">
+        <v>84</v>
+      </c>
+      <c r="R6">
+        <v>12</v>
+      </c>
+      <c r="S6">
+        <v>10</v>
+      </c>
+      <c r="T6">
+        <v>74</v>
+      </c>
+      <c r="U6">
+        <v>31</v>
+      </c>
+      <c r="V6">
+        <v>94</v>
+      </c>
+      <c r="W6">
+        <v>28</v>
+      </c>
+      <c r="X6">
+        <v>33</v>
+      </c>
+      <c r="Y6">
+        <v>14</v>
+      </c>
+      <c r="Z6">
+        <v>73</v>
+      </c>
+      <c r="AA6">
+        <v>83</v>
+      </c>
+      <c r="AB6">
+        <v>70</v>
+      </c>
+      <c r="AC6">
+        <v>60</v>
+      </c>
+      <c r="AD6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>80</v>
+      </c>
+      <c r="F7">
+        <v>85</v>
+      </c>
+      <c r="G7">
+        <v>21</v>
+      </c>
+      <c r="H7">
+        <v>11</v>
+      </c>
+      <c r="I7">
+        <v>55</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>11</v>
+      </c>
+      <c r="L7">
+        <v>45</v>
+      </c>
+      <c r="M7">
+        <v>75</v>
+      </c>
+      <c r="N7">
+        <v>68</v>
+      </c>
+      <c r="O7">
+        <v>54</v>
+      </c>
+      <c r="P7">
+        <v>7</v>
+      </c>
+      <c r="Q7">
+        <v>43</v>
+      </c>
+      <c r="R7">
+        <v>20</v>
+      </c>
+      <c r="S7">
+        <v>69</v>
+      </c>
+      <c r="T7">
+        <v>29</v>
+      </c>
+      <c r="U7">
+        <v>43</v>
+      </c>
+      <c r="V7">
+        <v>23</v>
+      </c>
+      <c r="W7">
+        <v>57</v>
+      </c>
+      <c r="X7">
+        <v>53</v>
+      </c>
+      <c r="Y7">
+        <v>62</v>
+      </c>
+      <c r="Z7">
+        <v>16</v>
+      </c>
+      <c r="AA7">
+        <v>50</v>
+      </c>
+      <c r="AB7">
+        <v>96</v>
+      </c>
+      <c r="AC7">
+        <v>69</v>
+      </c>
+      <c r="AD7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
+      <c r="A8">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>99</v>
+      </c>
+      <c r="E8">
+        <v>45</v>
+      </c>
+      <c r="F8">
+        <v>99</v>
+      </c>
+      <c r="G8">
+        <v>9</v>
+      </c>
+      <c r="H8">
+        <v>62</v>
+      </c>
+      <c r="I8">
+        <v>9</v>
+      </c>
+      <c r="J8">
+        <v>43</v>
+      </c>
+      <c r="K8">
+        <v>93</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>89</v>
+      </c>
+      <c r="N8">
+        <v>29</v>
+      </c>
+      <c r="O8">
+        <v>22</v>
+      </c>
+      <c r="P8">
+        <v>76</v>
+      </c>
+      <c r="Q8">
+        <v>41</v>
+      </c>
+      <c r="R8">
+        <v>20</v>
+      </c>
+      <c r="S8">
+        <v>62</v>
+      </c>
+      <c r="T8">
+        <v>60</v>
+      </c>
+      <c r="U8">
+        <v>45</v>
+      </c>
+      <c r="V8">
+        <v>46</v>
+      </c>
+      <c r="W8">
+        <v>59</v>
+      </c>
+      <c r="X8">
+        <v>63</v>
+      </c>
+      <c r="Y8">
+        <v>85</v>
+      </c>
+      <c r="Z8">
+        <v>82</v>
+      </c>
+      <c r="AA8">
+        <v>62</v>
+      </c>
+      <c r="AB8">
+        <v>72</v>
+      </c>
+      <c r="AC8">
+        <v>56</v>
+      </c>
+      <c r="AD8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
+      <c r="A9">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>73</v>
+      </c>
+      <c r="C9">
+        <v>55</v>
+      </c>
+      <c r="D9">
+        <v>90</v>
+      </c>
+      <c r="E9">
+        <v>24</v>
+      </c>
+      <c r="F9">
+        <v>18</v>
+      </c>
+      <c r="G9">
+        <v>60</v>
+      </c>
+      <c r="H9">
+        <v>69</v>
+      </c>
+      <c r="I9">
+        <v>58</v>
+      </c>
+      <c r="J9">
+        <v>35</v>
+      </c>
+      <c r="K9">
+        <v>49</v>
+      </c>
+      <c r="L9">
+        <v>8</v>
+      </c>
+      <c r="M9">
+        <v>74</v>
+      </c>
+      <c r="N9">
+        <v>61</v>
+      </c>
+      <c r="O9">
+        <v>62</v>
+      </c>
+      <c r="P9">
+        <v>69</v>
+      </c>
+      <c r="Q9">
+        <v>80</v>
+      </c>
+      <c r="R9">
+        <v>14</v>
+      </c>
+      <c r="S9">
+        <v>57</v>
+      </c>
+      <c r="T9">
+        <v>86</v>
+      </c>
+      <c r="U9">
+        <v>91</v>
+      </c>
+      <c r="V9">
+        <v>61</v>
+      </c>
+      <c r="W9">
+        <v>72</v>
+      </c>
+      <c r="X9">
+        <v>4</v>
+      </c>
+      <c r="Y9">
+        <v>66</v>
+      </c>
+      <c r="Z9">
         <v>97</v>
       </c>
-      <c r="B4">
-        <f t="shared" si="1"/>
-        <v>103</v>
+      <c r="AA9">
+        <v>31</v>
+      </c>
+      <c r="AB9">
+        <v>56</v>
+      </c>
+      <c r="AC9">
+        <v>30</v>
+      </c>
+      <c r="AD9">
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <f t="shared" si="0"/>
+    <row r="10" spans="1:30">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>86</v>
+      </c>
+      <c r="C10">
+        <v>85</v>
+      </c>
+      <c r="D10">
+        <v>74</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>32</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>64</v>
+      </c>
+      <c r="J10">
+        <v>82</v>
+      </c>
+      <c r="K10">
+        <v>54</v>
+      </c>
+      <c r="L10">
+        <v>44</v>
+      </c>
+      <c r="M10">
+        <v>40</v>
+      </c>
+      <c r="N10">
+        <v>29</v>
+      </c>
+      <c r="O10">
+        <v>46</v>
+      </c>
+      <c r="P10">
+        <v>50</v>
+      </c>
+      <c r="Q10">
+        <v>15</v>
+      </c>
+      <c r="R10">
+        <v>32</v>
+      </c>
+      <c r="S10">
+        <v>73</v>
+      </c>
+      <c r="T10">
+        <v>31</v>
+      </c>
+      <c r="U10">
+        <v>82</v>
+      </c>
+      <c r="V10">
+        <v>95</v>
+      </c>
+      <c r="W10">
+        <v>87</v>
+      </c>
+      <c r="X10">
+        <v>72</v>
+      </c>
+      <c r="Y10">
+        <v>30</v>
+      </c>
+      <c r="Z10">
+        <v>94</v>
+      </c>
+      <c r="AA10">
+        <v>12</v>
+      </c>
+      <c r="AB10">
+        <v>6</v>
+      </c>
+      <c r="AC10">
+        <v>78</v>
+      </c>
+      <c r="AD10">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
+      <c r="A11">
+        <v>60</v>
+      </c>
+      <c r="B11">
+        <v>95</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>87</v>
+      </c>
+      <c r="E11">
+        <v>65</v>
+      </c>
+      <c r="F11">
+        <v>32</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>50</v>
+      </c>
+      <c r="I11">
+        <v>22</v>
+      </c>
+      <c r="J11">
+        <v>29</v>
+      </c>
+      <c r="K11">
+        <v>91</v>
+      </c>
+      <c r="L11">
+        <v>55</v>
+      </c>
+      <c r="M11">
+        <v>66</v>
+      </c>
+      <c r="N11">
+        <v>11</v>
+      </c>
+      <c r="O11">
+        <v>49</v>
+      </c>
+      <c r="P11">
+        <v>37</v>
+      </c>
+      <c r="Q11">
+        <v>49</v>
+      </c>
+      <c r="R11">
+        <v>79</v>
+      </c>
+      <c r="S11">
+        <v>50</v>
+      </c>
+      <c r="T11">
+        <v>38</v>
+      </c>
+      <c r="U11">
+        <v>68</v>
+      </c>
+      <c r="V11">
+        <v>53</v>
+      </c>
+      <c r="W11">
+        <v>60</v>
+      </c>
+      <c r="X11">
+        <v>39</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>70</v>
+      </c>
+      <c r="AA11">
+        <v>10</v>
+      </c>
+      <c r="AB11">
+        <v>62</v>
+      </c>
+      <c r="AC11">
+        <v>86</v>
+      </c>
+      <c r="AD11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
+      <c r="A12">
+        <v>74</v>
+      </c>
+      <c r="B12">
+        <v>49</v>
+      </c>
+      <c r="C12">
+        <v>38</v>
+      </c>
+      <c r="D12">
+        <v>78</v>
+      </c>
+      <c r="E12">
+        <v>55</v>
+      </c>
+      <c r="F12">
+        <v>35</v>
+      </c>
+      <c r="G12">
+        <v>95</v>
+      </c>
+      <c r="H12">
+        <v>63</v>
+      </c>
+      <c r="I12">
+        <v>17</v>
+      </c>
+      <c r="J12">
+        <v>37</v>
+      </c>
+      <c r="K12">
+        <v>13</v>
+      </c>
+      <c r="L12">
+        <v>74</v>
+      </c>
+      <c r="M12">
+        <v>95</v>
+      </c>
+      <c r="N12">
+        <v>61</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="P12">
+        <v>32</v>
+      </c>
+      <c r="Q12">
+        <v>5</v>
+      </c>
+      <c r="R12">
+        <v>63</v>
+      </c>
+      <c r="S12">
+        <v>13</v>
+      </c>
+      <c r="T12">
+        <v>84</v>
+      </c>
+      <c r="U12">
+        <v>86</v>
+      </c>
+      <c r="V12">
+        <v>59</v>
+      </c>
+      <c r="W12">
+        <v>72</v>
+      </c>
+      <c r="X12">
+        <v>85</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>12</v>
+      </c>
+      <c r="AA12">
+        <v>70</v>
+      </c>
+      <c r="AB12">
+        <v>61</v>
+      </c>
+      <c r="AC12">
+        <v>21</v>
+      </c>
+      <c r="AD12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
+      <c r="A13">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>62</v>
+      </c>
+      <c r="C13">
+        <v>34</v>
+      </c>
+      <c r="D13">
+        <v>31</v>
+      </c>
+      <c r="E13">
+        <v>36</v>
+      </c>
+      <c r="F13">
+        <v>66</v>
+      </c>
+      <c r="G13">
+        <v>80</v>
+      </c>
+      <c r="H13">
+        <v>80</v>
+      </c>
+      <c r="I13">
+        <v>52</v>
+      </c>
+      <c r="J13">
+        <v>61</v>
+      </c>
+      <c r="K13">
+        <v>79</v>
+      </c>
+      <c r="L13">
+        <v>90</v>
+      </c>
+      <c r="M13">
+        <v>14</v>
+      </c>
+      <c r="N13">
+        <v>63</v>
+      </c>
+      <c r="O13">
+        <v>40</v>
+      </c>
+      <c r="P13">
+        <v>25</v>
+      </c>
+      <c r="Q13">
+        <v>13</v>
+      </c>
+      <c r="R13">
+        <v>85</v>
+      </c>
+      <c r="S13">
+        <v>6</v>
+      </c>
+      <c r="T13">
+        <v>42</v>
+      </c>
+      <c r="U13">
+        <v>57</v>
+      </c>
+      <c r="V13">
+        <v>30</v>
+      </c>
+      <c r="W13">
+        <v>54</v>
+      </c>
+      <c r="X13">
+        <v>22</v>
+      </c>
+      <c r="Y13">
+        <v>31</v>
+      </c>
+      <c r="Z13">
+        <v>11</v>
+      </c>
+      <c r="AA13">
+        <v>80</v>
+      </c>
+      <c r="AB13">
+        <v>13</v>
+      </c>
+      <c r="AC13">
+        <v>28</v>
+      </c>
+      <c r="AD13">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="A14">
+        <v>89</v>
+      </c>
+      <c r="B14">
+        <v>78</v>
+      </c>
+      <c r="C14">
+        <v>74</v>
+      </c>
+      <c r="D14">
+        <v>61</v>
+      </c>
+      <c r="E14">
+        <v>36</v>
+      </c>
+      <c r="F14">
+        <v>85</v>
+      </c>
+      <c r="G14">
+        <v>22</v>
+      </c>
+      <c r="H14">
+        <v>86</v>
+      </c>
+      <c r="I14">
+        <v>22</v>
+      </c>
+      <c r="J14">
+        <v>24</v>
+      </c>
+      <c r="K14">
+        <v>54</v>
+      </c>
+      <c r="L14">
+        <v>98</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="N14">
+        <v>8</v>
+      </c>
+      <c r="O14">
+        <v>52</v>
+      </c>
+      <c r="P14">
+        <v>42</v>
+      </c>
+      <c r="Q14">
+        <v>9</v>
+      </c>
+      <c r="R14">
+        <v>25</v>
+      </c>
+      <c r="S14">
+        <v>89</v>
+      </c>
+      <c r="T14">
+        <v>23</v>
+      </c>
+      <c r="U14">
+        <v>14</v>
+      </c>
+      <c r="V14">
+        <v>12</v>
+      </c>
+      <c r="W14">
+        <v>93</v>
+      </c>
+      <c r="X14">
+        <v>8</v>
+      </c>
+      <c r="Y14">
+        <v>4</v>
+      </c>
+      <c r="Z14">
+        <v>5</v>
+      </c>
+      <c r="AA14">
+        <v>33</v>
+      </c>
+      <c r="AB14">
+        <v>91</v>
+      </c>
+      <c r="AC14">
+        <v>39</v>
+      </c>
+      <c r="AD14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
+      <c r="A15">
+        <v>94</v>
+      </c>
+      <c r="B15">
+        <v>83</v>
+      </c>
+      <c r="C15">
+        <v>53</v>
+      </c>
+      <c r="D15">
+        <v>84</v>
+      </c>
+      <c r="E15">
+        <v>69</v>
+      </c>
+      <c r="F15">
+        <v>39</v>
+      </c>
+      <c r="G15">
+        <v>25</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>52</v>
+      </c>
+      <c r="J15">
+        <v>95</v>
+      </c>
+      <c r="K15">
+        <v>39</v>
+      </c>
+      <c r="L15">
+        <v>24</v>
+      </c>
+      <c r="M15">
+        <v>58</v>
+      </c>
+      <c r="N15">
+        <v>25</v>
+      </c>
+      <c r="O15">
+        <v>68</v>
+      </c>
+      <c r="P15">
+        <v>94</v>
+      </c>
+      <c r="Q15">
+        <v>43</v>
+      </c>
+      <c r="R15">
+        <v>89</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>94</v>
+      </c>
+      <c r="U15">
+        <v>60</v>
+      </c>
+      <c r="V15">
+        <v>78</v>
+      </c>
+      <c r="W15">
+        <v>57</v>
+      </c>
+      <c r="X15">
+        <v>14</v>
+      </c>
+      <c r="Y15">
+        <v>22</v>
+      </c>
+      <c r="Z15">
+        <v>38</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>41</v>
+      </c>
+      <c r="AC15">
+        <v>8</v>
+      </c>
+      <c r="AD15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
+      <c r="A16">
+        <v>85</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>81</v>
+      </c>
+      <c r="D16">
+        <v>66</v>
+      </c>
+      <c r="E16">
+        <v>69</v>
+      </c>
+      <c r="F16">
+        <v>80</v>
+      </c>
+      <c r="G16">
+        <v>53</v>
+      </c>
+      <c r="H16">
+        <v>68</v>
+      </c>
+      <c r="I16">
+        <v>14</v>
+      </c>
+      <c r="J16">
+        <v>68</v>
+      </c>
+      <c r="K16">
+        <v>72</v>
+      </c>
+      <c r="L16">
+        <v>77</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <v>86</v>
+      </c>
+      <c r="O16">
+        <v>64</v>
+      </c>
+      <c r="P16">
+        <v>70</v>
+      </c>
+      <c r="Q16">
+        <v>8</v>
+      </c>
+      <c r="R16">
+        <v>55</v>
+      </c>
+      <c r="S16">
+        <v>94</v>
+      </c>
+      <c r="T16">
+        <v>5</v>
+      </c>
+      <c r="U16">
+        <v>27</v>
+      </c>
+      <c r="V16">
+        <v>14</v>
+      </c>
+      <c r="W16">
+        <v>98</v>
+      </c>
+      <c r="X16">
+        <v>61</v>
+      </c>
+      <c r="Y16">
+        <v>29</v>
+      </c>
+      <c r="Z16">
+        <v>92</v>
+      </c>
+      <c r="AA16">
+        <v>36</v>
+      </c>
+      <c r="AB16">
+        <v>69</v>
+      </c>
+      <c r="AC16">
+        <v>21</v>
+      </c>
+      <c r="AD16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
+      <c r="A17">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>52</v>
+      </c>
+      <c r="C17">
+        <v>90</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>90</v>
+      </c>
+      <c r="F17">
+        <v>44</v>
+      </c>
+      <c r="G17">
+        <v>8</v>
+      </c>
+      <c r="H17">
+        <v>78</v>
+      </c>
+      <c r="I17">
+        <v>17</v>
+      </c>
+      <c r="J17">
+        <v>97</v>
+      </c>
+      <c r="K17">
+        <v>77</v>
+      </c>
+      <c r="L17">
+        <v>87</v>
+      </c>
+      <c r="M17">
+        <v>21</v>
+      </c>
+      <c r="N17">
+        <v>45</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>75</v>
+      </c>
+      <c r="Q17">
+        <v>11</v>
+      </c>
+      <c r="R17">
+        <v>40</v>
+      </c>
+      <c r="S17">
+        <v>31</v>
+      </c>
+      <c r="T17">
+        <v>99</v>
+      </c>
+      <c r="U17">
+        <v>3</v>
+      </c>
+      <c r="V17">
+        <v>25</v>
+      </c>
+      <c r="W17">
+        <v>18</v>
+      </c>
+      <c r="X17">
+        <v>24</v>
+      </c>
+      <c r="Y17">
+        <v>15</v>
+      </c>
+      <c r="Z17">
+        <v>62</v>
+      </c>
+      <c r="AA17">
+        <v>88</v>
+      </c>
+      <c r="AB17">
+        <v>93</v>
+      </c>
+      <c r="AC17">
+        <v>19</v>
+      </c>
+      <c r="AD17">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
+      <c r="A18">
+        <v>64</v>
+      </c>
+      <c r="B18">
+        <v>65</v>
+      </c>
+      <c r="C18">
+        <v>90</v>
+      </c>
+      <c r="D18">
+        <v>45</v>
+      </c>
+      <c r="E18">
+        <v>92</v>
+      </c>
+      <c r="F18">
+        <v>66</v>
+      </c>
+      <c r="G18">
+        <v>15</v>
+      </c>
+      <c r="H18">
+        <v>63</v>
+      </c>
+      <c r="I18">
+        <v>56</v>
+      </c>
+      <c r="J18">
+        <v>42</v>
+      </c>
+      <c r="K18">
+        <v>94</v>
+      </c>
+      <c r="L18">
+        <v>54</v>
+      </c>
+      <c r="M18">
+        <v>57</v>
+      </c>
+      <c r="N18">
+        <v>53</v>
+      </c>
+      <c r="O18">
+        <v>25</v>
+      </c>
+      <c r="P18">
+        <v>39</v>
+      </c>
+      <c r="Q18">
+        <v>35</v>
+      </c>
+      <c r="R18">
+        <v>3</v>
+      </c>
+      <c r="S18">
+        <v>79</v>
+      </c>
+      <c r="T18">
+        <v>19</v>
+      </c>
+      <c r="U18">
+        <v>7</v>
+      </c>
+      <c r="V18">
+        <v>38</v>
+      </c>
+      <c r="W18">
+        <v>59</v>
+      </c>
+      <c r="X18">
+        <v>7</v>
+      </c>
+      <c r="Y18">
+        <v>19</v>
+      </c>
+      <c r="Z18">
+        <v>15</v>
+      </c>
+      <c r="AA18">
+        <v>64</v>
+      </c>
+      <c r="AB18">
+        <v>45</v>
+      </c>
+      <c r="AC18">
+        <v>60</v>
+      </c>
+      <c r="AD18">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
+      <c r="A19">
+        <v>44</v>
+      </c>
+      <c r="B19">
+        <v>68</v>
+      </c>
+      <c r="C19">
+        <v>39</v>
+      </c>
+      <c r="D19">
+        <v>83</v>
+      </c>
+      <c r="E19">
+        <v>59</v>
+      </c>
+      <c r="F19">
+        <v>19</v>
+      </c>
+      <c r="G19">
+        <v>94</v>
+      </c>
+      <c r="H19">
+        <v>87</v>
+      </c>
+      <c r="I19">
+        <v>39</v>
+      </c>
+      <c r="J19">
+        <v>98</v>
+      </c>
+      <c r="K19">
+        <v>18</v>
+      </c>
+      <c r="L19">
+        <v>89</v>
+      </c>
+      <c r="M19">
+        <v>57</v>
+      </c>
+      <c r="N19">
+        <v>44</v>
+      </c>
+      <c r="O19">
+        <v>62</v>
+      </c>
+      <c r="P19">
+        <v>70</v>
+      </c>
+      <c r="Q19">
+        <v>4</v>
+      </c>
+      <c r="R19">
+        <v>28</v>
+      </c>
+      <c r="S19">
+        <v>26</v>
+      </c>
+      <c r="T19">
+        <v>40</v>
+      </c>
+      <c r="U19">
+        <v>89</v>
+      </c>
+      <c r="V19">
+        <v>71</v>
+      </c>
+      <c r="W19">
+        <v>72</v>
+      </c>
+      <c r="X19">
+        <v>89</v>
+      </c>
+      <c r="Y19">
+        <v>39</v>
+      </c>
+      <c r="Z19">
+        <v>39</v>
+      </c>
+      <c r="AA19">
+        <v>90</v>
+      </c>
+      <c r="AB19">
+        <v>30</v>
+      </c>
+      <c r="AC19">
+        <v>38</v>
+      </c>
+      <c r="AD19">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
+      <c r="A20">
+        <v>35</v>
+      </c>
+      <c r="B20">
+        <v>73</v>
+      </c>
+      <c r="C20">
+        <v>74</v>
+      </c>
+      <c r="D20">
+        <v>73</v>
+      </c>
+      <c r="E20">
+        <v>73</v>
+      </c>
+      <c r="F20">
+        <v>13</v>
+      </c>
+      <c r="G20">
+        <v>20</v>
+      </c>
+      <c r="H20">
+        <v>27</v>
+      </c>
+      <c r="I20">
+        <v>68</v>
+      </c>
+      <c r="J20">
+        <v>91</v>
+      </c>
+      <c r="K20">
+        <v>36</v>
+      </c>
+      <c r="L20">
+        <v>51</v>
+      </c>
+      <c r="M20">
+        <v>10</v>
+      </c>
+      <c r="N20">
+        <v>90</v>
+      </c>
+      <c r="O20">
+        <v>20</v>
+      </c>
+      <c r="P20">
+        <v>51</v>
+      </c>
+      <c r="Q20">
+        <v>65</v>
+      </c>
+      <c r="R20">
+        <v>43</v>
+      </c>
+      <c r="S20">
+        <v>68</v>
+      </c>
+      <c r="T20">
+        <v>9</v>
+      </c>
+      <c r="U20">
+        <v>7</v>
+      </c>
+      <c r="V20">
+        <v>7</v>
+      </c>
+      <c r="W20">
+        <v>2</v>
+      </c>
+      <c r="X20">
+        <v>35</v>
+      </c>
+      <c r="Y20">
+        <v>30</v>
+      </c>
+      <c r="Z20">
+        <v>69</v>
+      </c>
+      <c r="AA20">
+        <v>14</v>
+      </c>
+      <c r="AB20">
+        <v>39</v>
+      </c>
+      <c r="AC20">
+        <v>6</v>
+      </c>
+      <c r="AD20">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
+      <c r="A21">
+        <v>72</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>69</v>
+      </c>
+      <c r="D21">
+        <v>61</v>
+      </c>
+      <c r="E21">
+        <v>65</v>
+      </c>
+      <c r="F21">
+        <v>54</v>
+      </c>
+      <c r="G21">
+        <v>9</v>
+      </c>
+      <c r="H21">
+        <v>54</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>97</v>
+      </c>
+      <c r="K21">
+        <v>46</v>
+      </c>
+      <c r="L21">
         <v>96</v>
       </c>
-      <c r="B5">
-        <f t="shared" si="1"/>
-        <v>104</v>
+      <c r="M21">
+        <v>72</v>
+      </c>
+      <c r="N21">
+        <v>53</v>
+      </c>
+      <c r="O21">
+        <v>67</v>
+      </c>
+      <c r="P21">
+        <v>69</v>
+      </c>
+      <c r="Q21">
+        <v>37</v>
+      </c>
+      <c r="R21">
+        <v>38</v>
+      </c>
+      <c r="S21">
+        <v>4</v>
+      </c>
+      <c r="T21">
+        <v>80</v>
+      </c>
+      <c r="U21">
+        <v>16</v>
+      </c>
+      <c r="V21">
+        <v>6</v>
+      </c>
+      <c r="W21">
+        <v>31</v>
+      </c>
+      <c r="X21">
+        <v>78</v>
+      </c>
+      <c r="Y21">
+        <v>21</v>
+      </c>
+      <c r="Z21">
+        <v>32</v>
+      </c>
+      <c r="AA21">
+        <v>48</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>43</v>
+      </c>
+      <c r="AD21">
+        <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <f t="shared" si="0"/>
+    <row r="22" spans="1:30">
+      <c r="A22">
+        <v>60</v>
+      </c>
+      <c r="B22">
+        <v>75</v>
+      </c>
+      <c r="C22">
+        <v>40</v>
+      </c>
+      <c r="D22">
+        <v>34</v>
+      </c>
+      <c r="E22">
+        <v>84</v>
+      </c>
+      <c r="F22">
+        <v>94</v>
+      </c>
+      <c r="G22">
+        <v>62</v>
+      </c>
+      <c r="H22">
+        <v>99</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <v>56</v>
+      </c>
+      <c r="K22">
+        <v>86</v>
+      </c>
+      <c r="L22">
+        <v>38</v>
+      </c>
+      <c r="M22">
+        <v>30</v>
+      </c>
+      <c r="N22">
+        <v>28</v>
+      </c>
+      <c r="O22">
+        <v>2</v>
+      </c>
+      <c r="P22">
+        <v>61</v>
+      </c>
+      <c r="Q22">
+        <v>39</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>3</v>
+      </c>
+      <c r="T22">
+        <v>45</v>
+      </c>
+      <c r="U22">
+        <v>85</v>
+      </c>
+      <c r="V22">
+        <v>93</v>
+      </c>
+      <c r="W22">
+        <v>40</v>
+      </c>
+      <c r="X22">
+        <v>72</v>
+      </c>
+      <c r="Y22">
+        <v>61</v>
+      </c>
+      <c r="Z22">
+        <v>80</v>
+      </c>
+      <c r="AA22">
+        <v>87</v>
+      </c>
+      <c r="AB22">
+        <v>58</v>
+      </c>
+      <c r="AC22">
+        <v>59</v>
+      </c>
+      <c r="AD22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
+      <c r="A23">
+        <v>79</v>
+      </c>
+      <c r="B23">
+        <v>46</v>
+      </c>
+      <c r="C23">
+        <v>59</v>
+      </c>
+      <c r="D23">
+        <v>58</v>
+      </c>
+      <c r="E23">
+        <v>56</v>
+      </c>
+      <c r="F23">
+        <v>81</v>
+      </c>
+      <c r="G23">
+        <v>67</v>
+      </c>
+      <c r="H23">
+        <v>34</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>26</v>
+      </c>
+      <c r="K23">
+        <v>34</v>
+      </c>
+      <c r="L23">
+        <v>23</v>
+      </c>
+      <c r="M23">
+        <v>77</v>
+      </c>
+      <c r="N23">
+        <v>37</v>
+      </c>
+      <c r="O23">
+        <v>86</v>
+      </c>
+      <c r="P23">
+        <v>11</v>
+      </c>
+      <c r="Q23">
+        <v>72</v>
+      </c>
+      <c r="R23">
+        <v>62</v>
+      </c>
+      <c r="S23">
+        <v>89</v>
+      </c>
+      <c r="T23">
+        <v>18</v>
+      </c>
+      <c r="U23">
+        <v>53</v>
+      </c>
+      <c r="V23">
+        <v>90</v>
+      </c>
+      <c r="W23">
+        <v>78</v>
+      </c>
+      <c r="X23">
+        <v>96</v>
+      </c>
+      <c r="Y23">
+        <v>19</v>
+      </c>
+      <c r="Z23">
+        <v>90</v>
+      </c>
+      <c r="AA23">
+        <v>79</v>
+      </c>
+      <c r="AB23">
         <v>95</v>
       </c>
-      <c r="B6">
-        <f t="shared" si="1"/>
-        <v>105</v>
+      <c r="AC23">
+        <v>84</v>
+      </c>
+      <c r="AD23">
+        <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <f t="shared" si="0"/>
+    <row r="24" spans="1:30">
+      <c r="A24">
+        <v>62</v>
+      </c>
+      <c r="B24">
+        <v>18</v>
+      </c>
+      <c r="C24">
+        <v>61</v>
+      </c>
+      <c r="D24">
+        <v>26</v>
+      </c>
+      <c r="E24">
+        <v>25</v>
+      </c>
+      <c r="F24">
+        <v>73</v>
+      </c>
+      <c r="G24">
+        <v>78</v>
+      </c>
+      <c r="H24">
+        <v>17</v>
+      </c>
+      <c r="I24">
+        <v>71</v>
+      </c>
+      <c r="J24">
+        <v>48</v>
+      </c>
+      <c r="K24">
+        <v>8</v>
+      </c>
+      <c r="L24">
+        <v>80</v>
+      </c>
+      <c r="M24">
+        <v>85</v>
+      </c>
+      <c r="N24">
+        <v>12</v>
+      </c>
+      <c r="O24">
+        <v>30</v>
+      </c>
+      <c r="P24">
+        <v>57</v>
+      </c>
+      <c r="Q24">
+        <v>47</v>
+      </c>
+      <c r="R24">
+        <v>76</v>
+      </c>
+      <c r="S24">
+        <v>19</v>
+      </c>
+      <c r="T24">
+        <v>72</v>
+      </c>
+      <c r="U24">
+        <v>99</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>64</v>
+      </c>
+      <c r="X24">
+        <v>69</v>
+      </c>
+      <c r="Y24">
+        <v>17</v>
+      </c>
+      <c r="Z24">
+        <v>7</v>
+      </c>
+      <c r="AA24">
+        <v>27</v>
+      </c>
+      <c r="AB24">
+        <v>67</v>
+      </c>
+      <c r="AC24">
+        <v>83</v>
+      </c>
+      <c r="AD24">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
+      <c r="A25">
+        <v>37</v>
+      </c>
+      <c r="B25">
+        <v>77</v>
+      </c>
+      <c r="C25">
+        <v>23</v>
+      </c>
+      <c r="D25">
+        <v>63</v>
+      </c>
+      <c r="E25">
+        <v>23</v>
+      </c>
+      <c r="F25">
+        <v>20</v>
+      </c>
+      <c r="G25">
+        <v>97</v>
+      </c>
+      <c r="H25">
+        <v>28</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>76</v>
+      </c>
+      <c r="K25">
+        <v>15</v>
+      </c>
+      <c r="L25">
+        <v>4</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>34</v>
+      </c>
+      <c r="O25">
+        <v>64</v>
+      </c>
+      <c r="P25">
+        <v>34</v>
+      </c>
+      <c r="Q25">
+        <v>41</v>
+      </c>
+      <c r="R25">
+        <v>41</v>
+      </c>
+      <c r="S25">
+        <v>9</v>
+      </c>
+      <c r="T25">
+        <v>54</v>
+      </c>
+      <c r="U25">
+        <v>69</v>
+      </c>
+      <c r="V25">
+        <v>33</v>
+      </c>
+      <c r="W25">
+        <v>65</v>
+      </c>
+      <c r="X25">
+        <v>87</v>
+      </c>
+      <c r="Y25">
+        <v>53</v>
+      </c>
+      <c r="Z25">
+        <v>57</v>
+      </c>
+      <c r="AA25">
+        <v>5</v>
+      </c>
+      <c r="AB25">
+        <v>46</v>
+      </c>
+      <c r="AC25">
+        <v>25</v>
+      </c>
+      <c r="AD25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30">
+      <c r="A26">
+        <v>86</v>
+      </c>
+      <c r="B26">
+        <v>48</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>56</v>
+      </c>
+      <c r="E26">
+        <v>70</v>
+      </c>
+      <c r="F26">
+        <v>77</v>
+      </c>
+      <c r="G26">
+        <v>86</v>
+      </c>
+      <c r="H26">
+        <v>85</v>
+      </c>
+      <c r="I26">
+        <v>29</v>
+      </c>
+      <c r="J26">
+        <v>86</v>
+      </c>
+      <c r="K26">
+        <v>64</v>
+      </c>
+      <c r="L26">
+        <v>74</v>
+      </c>
+      <c r="M26">
+        <v>82</v>
+      </c>
+      <c r="N26">
+        <v>76</v>
+      </c>
+      <c r="O26">
+        <v>87</v>
+      </c>
+      <c r="P26">
+        <v>90</v>
+      </c>
+      <c r="Q26">
+        <v>91</v>
+      </c>
+      <c r="R26">
+        <v>52</v>
+      </c>
+      <c r="S26">
+        <v>44</v>
+      </c>
+      <c r="T26">
+        <v>10</v>
+      </c>
+      <c r="U26">
+        <v>35</v>
+      </c>
+      <c r="V26">
+        <v>82</v>
+      </c>
+      <c r="W26">
+        <v>42</v>
+      </c>
+      <c r="X26">
+        <v>16</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>65</v>
+      </c>
+      <c r="AA26">
+        <v>77</v>
+      </c>
+      <c r="AB26">
+        <v>6</v>
+      </c>
+      <c r="AC26">
+        <v>8</v>
+      </c>
+      <c r="AD26">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
+      <c r="A27">
+        <v>68</v>
+      </c>
+      <c r="B27">
+        <v>80</v>
+      </c>
+      <c r="C27">
+        <v>15</v>
+      </c>
+      <c r="D27">
+        <v>14</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>34</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>97</v>
+      </c>
+      <c r="I27">
+        <v>64</v>
+      </c>
+      <c r="J27">
+        <v>5</v>
+      </c>
+      <c r="K27">
+        <v>91</v>
+      </c>
+      <c r="L27">
+        <v>63</v>
+      </c>
+      <c r="M27">
+        <v>43</v>
+      </c>
+      <c r="N27">
+        <v>2</v>
+      </c>
+      <c r="O27">
+        <v>24</v>
+      </c>
+      <c r="P27">
+        <v>39</v>
+      </c>
+      <c r="Q27">
+        <v>65</v>
+      </c>
+      <c r="R27">
+        <v>78</v>
+      </c>
+      <c r="S27">
+        <v>2</v>
+      </c>
+      <c r="T27">
+        <v>82</v>
+      </c>
+      <c r="U27">
+        <v>13</v>
+      </c>
+      <c r="V27">
+        <v>63</v>
+      </c>
+      <c r="W27">
+        <v>55</v>
+      </c>
+      <c r="X27">
+        <v>98</v>
+      </c>
+      <c r="Y27">
+        <v>46</v>
+      </c>
+      <c r="Z27">
+        <v>21</v>
+      </c>
+      <c r="AA27">
+        <v>30</v>
+      </c>
+      <c r="AB27">
+        <v>78</v>
+      </c>
+      <c r="AC27">
+        <v>34</v>
+      </c>
+      <c r="AD27">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30">
+      <c r="A28">
+        <v>60</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>98</v>
+      </c>
+      <c r="D28">
+        <v>75</v>
+      </c>
+      <c r="E28">
+        <v>15</v>
+      </c>
+      <c r="F28">
+        <v>45</v>
+      </c>
+      <c r="G28">
+        <v>71</v>
+      </c>
+      <c r="H28">
+        <v>99</v>
+      </c>
+      <c r="I28">
+        <v>77</v>
+      </c>
+      <c r="J28">
+        <v>64</v>
+      </c>
+      <c r="K28">
+        <v>62</v>
+      </c>
+      <c r="L28">
         <v>94</v>
       </c>
-      <c r="B7">
-        <f t="shared" si="1"/>
-        <v>106</v>
+      <c r="M28">
+        <v>68</v>
+      </c>
+      <c r="N28">
+        <v>28</v>
+      </c>
+      <c r="O28">
+        <v>56</v>
+      </c>
+      <c r="P28">
+        <v>29</v>
+      </c>
+      <c r="Q28">
+        <v>54</v>
+      </c>
+      <c r="R28">
+        <v>71</v>
+      </c>
+      <c r="S28">
+        <v>24</v>
+      </c>
+      <c r="T28">
+        <v>54</v>
+      </c>
+      <c r="U28">
+        <v>49</v>
+      </c>
+      <c r="V28">
+        <v>95</v>
+      </c>
+      <c r="W28">
+        <v>66</v>
+      </c>
+      <c r="X28">
+        <v>76</v>
+      </c>
+      <c r="Y28">
+        <v>62</v>
+      </c>
+      <c r="Z28">
+        <v>44</v>
+      </c>
+      <c r="AA28">
+        <v>79</v>
+      </c>
+      <c r="AB28">
+        <v>74</v>
+      </c>
+      <c r="AC28">
+        <v>98</v>
+      </c>
+      <c r="AD28">
+        <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>93</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="1"/>
-        <v>107</v>
+    <row r="29" spans="1:30">
+      <c r="A29">
+        <v>62</v>
+      </c>
+      <c r="B29">
+        <v>90</v>
+      </c>
+      <c r="C29">
+        <v>59</v>
+      </c>
+      <c r="D29">
+        <v>91</v>
+      </c>
+      <c r="E29">
+        <v>50</v>
+      </c>
+      <c r="F29">
+        <v>48</v>
+      </c>
+      <c r="G29">
+        <v>44</v>
+      </c>
+      <c r="H29">
+        <v>88</v>
+      </c>
+      <c r="I29">
+        <v>94</v>
+      </c>
+      <c r="J29">
+        <v>18</v>
+      </c>
+      <c r="K29">
+        <v>25</v>
+      </c>
+      <c r="L29">
+        <v>20</v>
+      </c>
+      <c r="M29">
+        <v>73</v>
+      </c>
+      <c r="N29">
+        <v>94</v>
+      </c>
+      <c r="O29">
+        <v>62</v>
+      </c>
+      <c r="P29">
+        <v>4</v>
+      </c>
+      <c r="Q29">
+        <v>64</v>
+      </c>
+      <c r="R29">
+        <v>3</v>
+      </c>
+      <c r="S29">
+        <v>55</v>
+      </c>
+      <c r="T29">
+        <v>54</v>
+      </c>
+      <c r="U29">
+        <v>44</v>
+      </c>
+      <c r="V29">
+        <v>6</v>
+      </c>
+      <c r="W29">
+        <v>99</v>
+      </c>
+      <c r="X29">
+        <v>12</v>
+      </c>
+      <c r="Y29">
+        <v>60</v>
+      </c>
+      <c r="Z29">
+        <v>5</v>
+      </c>
+      <c r="AA29">
+        <v>17</v>
+      </c>
+      <c r="AB29">
+        <v>66</v>
+      </c>
+      <c r="AC29">
+        <v>33</v>
+      </c>
+      <c r="AD29">
+        <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>92</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="1"/>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>91</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="1"/>
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <f t="shared" si="0"/>
+    <row r="30" spans="1:30">
+      <c r="A30">
+        <v>65</v>
+      </c>
+      <c r="B30">
+        <v>41</v>
+      </c>
+      <c r="C30">
+        <v>42</v>
+      </c>
+      <c r="D30">
+        <v>22</v>
+      </c>
+      <c r="E30">
+        <v>67</v>
+      </c>
+      <c r="F30">
+        <v>16</v>
+      </c>
+      <c r="G30">
+        <v>49</v>
+      </c>
+      <c r="H30">
+        <v>50</v>
+      </c>
+      <c r="I30">
+        <v>80</v>
+      </c>
+      <c r="J30">
+        <v>43</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>33</v>
+      </c>
+      <c r="M30">
+        <v>37</v>
+      </c>
+      <c r="N30">
+        <v>12</v>
+      </c>
+      <c r="O30">
+        <v>82</v>
+      </c>
+      <c r="P30">
+        <v>73</v>
+      </c>
+      <c r="Q30">
+        <v>89</v>
+      </c>
+      <c r="R30">
+        <v>64</v>
+      </c>
+      <c r="S30">
+        <v>65</v>
+      </c>
+      <c r="T30">
+        <v>51</v>
+      </c>
+      <c r="U30">
+        <v>73</v>
+      </c>
+      <c r="V30">
+        <v>73</v>
+      </c>
+      <c r="W30">
+        <v>95</v>
+      </c>
+      <c r="X30">
+        <v>46</v>
+      </c>
+      <c r="Y30">
+        <v>36</v>
+      </c>
+      <c r="Z30">
+        <v>11</v>
+      </c>
+      <c r="AA30">
         <v>90</v>
       </c>
-      <c r="B11">
-        <f t="shared" si="1"/>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>89</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="1"/>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="1"/>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>87</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="1"/>
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>86</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="1"/>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="1"/>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>83</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="1"/>
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <f t="shared" si="0"/>
+      <c r="AB30">
         <v>82</v>
       </c>
-      <c r="B19">
-        <f t="shared" si="1"/>
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="1"/>
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>79</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="1"/>
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>78</v>
-      </c>
-      <c r="B23">
-        <f t="shared" si="1"/>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>77</v>
-      </c>
-      <c r="B24">
-        <f t="shared" si="1"/>
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
-      <c r="B25">
-        <f t="shared" si="1"/>
-        <v>124</v>
+      <c r="AC30">
+        <v>45</v>
+      </c>
+      <c r="AD30">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
